--- a/scraper-server/uddipan/uddipan-project/finalData.xlsx
+++ b/scraper-server/uddipan/uddipan-project/finalData.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -488,11 +488,7 @@
         <v>33</v>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>110.00</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>https://cellarbration.com.sg/peroni-nastro-azzuro-beer-bottle-24btls-x-330ml.html</t>
@@ -516,11 +512,7 @@
       <c r="D3" t="n">
         <v>75</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Red Wine</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
@@ -544,11 +536,7 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>132.00</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>https://cellarbration.com.sg/ledaig-2011-very-cloudy-s-v-70cl-40.html</t>
@@ -569,19 +557,9 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
-        <v>70</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Gin</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>79.00</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>https://cellarbration.com.sg/tarsier-gin.html</t>
@@ -602,9 +580,7 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
-        <v>70</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
@@ -3101,6 +3077,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scraper-server/uddipan/uddipan-project/finalData.xlsx
+++ b/scraper-server/uddipan/uddipan-project/finalData.xlsx
@@ -488,7 +488,11 @@
         <v>33</v>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>110.00</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>https://cellarbration.com.sg/peroni-nastro-azzuro-beer-bottle-24btls-x-330ml.html</t>
